--- a/empirics/modeldata/CETC_data.xlsx
+++ b/empirics/modeldata/CETC_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>occ1d</t>
   </si>
@@ -120,7 +120,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>-0.049271263182163239</v>
+        <v>-0.04927125945687294</v>
       </c>
     </row>
     <row r="8">
@@ -128,7 +128,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>-0.029596198350191116</v>
+        <v>-0.029596190899610519</v>
       </c>
     </row>
     <row r="9">
@@ -136,7 +136,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>-0.040318615734577179</v>
+        <v>-0.04031861200928688</v>
       </c>
     </row>
     <row r="10">
@@ -152,7 +152,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>-0.04607294499874115</v>
+        <v>-0.046072941273450851</v>
       </c>
     </row>
     <row r="12">
@@ -160,7 +160,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>-0.046758927404880524</v>
+        <v>-0.046758919954299927</v>
       </c>
     </row>
   </sheetData>
